--- a/2023/week05/data.xlsx
+++ b/2023/week05/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Portela</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>championships</t>
+  </si>
+  <si>
+    <t>parades</t>
   </si>
 </sst>
 </file>
@@ -417,143 +420,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
+        <v>65</v>
+      </c>
+      <c r="C8" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
         <v>1</v>
       </c>
     </row>
